--- a/Requirements/SRS.xlsx
+++ b/Requirements/SRS.xlsx
@@ -1,21 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Business Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Nhan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>The email must not be empty</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>The email must contain character ‘@’ and “.”</t>
+  </si>
+  <si>
+    <t>The username must not be empty</t>
+  </si>
+  <si>
+    <t>The username must be at least 3 characters.</t>
+  </si>
+  <si>
+    <t>The password must not be empty</t>
+  </si>
+  <si>
+    <t>The password  must be at least 6 characters</t>
+  </si>
+  <si>
+    <t>The banned account can’t log in the system</t>
+  </si>
+  <si>
+    <t>Description must be at least 80 characters.</t>
+  </si>
+  <si>
+    <t>Instructions for buyer must be no more than 1500 characters</t>
+  </si>
+  <si>
+    <t>UC ID</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Normal Flow</t>
+  </si>
+  <si>
+    <t>UC Name</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Post Condition</t>
+  </si>
+  <si>
+    <t>Alternative Flow</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Frequency of Use</t>
+  </si>
+  <si>
+    <t>Business rules</t>
+  </si>
+  <si>
+    <t>Other Informations</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +137,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -40,18 +195,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +571,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>